--- a/day12/Analysis.xlsx
+++ b/day12/Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex McRae\Coding\AdventOfCode2018\day12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{57806647-1357-4662-8F1A-E7767904C1C0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59F0362-390F-42D2-917C-1FBF83EDC35F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8850" xr2:uid="{0403172A-FFA7-48FE-8F85-9F49A4CCFDB9}"/>
   </bookViews>
@@ -1157,7 +1157,3464 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>Number</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" baseline="0"/>
+              <a:t> of Plants per Generation</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$1:$A$503</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="503"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>329</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>339</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>369</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>383</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>394</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>395</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>403</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>404</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>407</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>409</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>413</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>415</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>417</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>418</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>419</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>422</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>423</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>424</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>426</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>427</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>428</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>429</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>431</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>432</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>433</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>436</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>437</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>438</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>439</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>442</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>444</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>446</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>449</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>451</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>452</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>453</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>454</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>456</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>457</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>458</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>459</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>462</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>463</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>464</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>466</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>467</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>468</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>469</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>471</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>472</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>473</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>474</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>477</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>478</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>479</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>481</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>482</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>484</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>487</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>488</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>489</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>492</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>493</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>494</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>495</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>497</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>498</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>499</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$B$503</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="503"/>
+                <c:pt idx="0">
+                  <c:v>2316</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2374</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2964</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3277</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2687</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3204</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3496</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2792</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3696</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2888</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3826</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3504</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3467</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3582</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3671</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3645</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3660</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3742</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3303</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3899</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3276</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3816</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3892</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4068</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4373</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4334</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4278</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4109</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4311</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4739</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4557</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4361</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4839</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4857</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4493</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5159</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4826</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4790</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4604</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4941</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4826</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5248</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5450</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4993</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5709</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5538</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5688</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5815</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5788</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5574</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5768</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5607</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5769</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6084</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6097</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6023</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6435</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6255</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5949</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6521</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6116</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5724</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6250</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6104</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6392</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6163</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6978</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6375</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6367</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6472</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>6880</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7243</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>6593</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7030</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6497</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>6949</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6957</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6970</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>6910</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>6791</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>6729</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>7399</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>7165</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>7510</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>7557</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>7238</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>7771</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>7816</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>7935</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8106</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>7913</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>8201</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7830</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>8379</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>7971</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>8665</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>8303</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>8379</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>8307</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>8899</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>8561</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>8757</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>8806</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>9068</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>8845</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>9131</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>9357</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>9384</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>9008</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>9182</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>9595</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>9900</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>9620</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>9809</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>9528</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>9918</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>9695</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>10040</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>9953</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>10272</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>10094</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>10242</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>9827</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>10237</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>10617</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>10036</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>10346</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>10510</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>10849</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>10393</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>10574</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>10815</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>11042</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>11518</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>11094</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>11277</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>11406</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>10852</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>11289</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>11520</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>11438</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>11682</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>11960</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>11639</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>11790</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>11851</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>11951</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>12004</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>11906</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>12251</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>12497</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>12481</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>12454</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>12249</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>12507</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>12764</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>12923</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>13182</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>12987</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>13252</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>13213</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>12822</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>13275</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>13352</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>13420</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>13591</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>13958</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>13731</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>13713</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>13788</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>13863</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>13938</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>14013</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>14088</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>14163</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>14238</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>14313</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>14388</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>14463</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>14538</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>14613</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>14688</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>14763</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>14838</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>14913</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>14988</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>15063</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>15138</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>15213</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>15288</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>15363</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>15438</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>15513</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>15588</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>15663</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>15738</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>15813</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>15888</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>15963</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>16038</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>16113</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>16188</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>16263</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>16338</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>16413</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>16488</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>16563</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>16638</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>16713</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>16788</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>16863</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>16938</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>17013</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>17088</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>17163</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>17238</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>17313</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>17388</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>17463</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>17538</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>17613</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>17688</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>17763</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>17838</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>17913</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>17988</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>18063</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>18138</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>18213</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>18288</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>18363</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>18438</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>18513</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>18588</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>18663</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>18738</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>18813</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>18888</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>18963</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>19038</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>19113</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>19188</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>19263</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>19338</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>19413</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>19488</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>19563</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>19638</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>19713</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>19788</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>19863</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>19938</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>20013</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>20088</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>20163</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>20238</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>20313</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>20388</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>20463</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>20538</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>20613</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>20688</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>20763</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>20838</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>20913</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>20988</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>21063</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>21138</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>21213</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>21288</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>21363</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>21438</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>21513</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>21588</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>21663</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>21738</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>21813</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>21888</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>21963</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>22038</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>22113</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>22188</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>22263</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>22338</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>22413</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>22488</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>22563</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>22638</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>22713</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>22788</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>22863</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>22938</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>23013</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>23088</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>23163</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>23238</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>23313</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>23388</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>23463</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>23538</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>23613</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>23688</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>23763</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>23838</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>23913</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>23988</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>24063</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>24138</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>24213</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>24288</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>24363</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>24438</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>24513</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>24588</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>24663</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>24738</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>24813</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>24888</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>24963</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>25038</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>25113</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>25188</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>25263</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>25338</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>25413</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>25488</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>25563</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>25638</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>25713</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>25788</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>25863</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>25938</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>26013</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>26088</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>26163</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>26238</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>26313</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>26388</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>26463</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>26538</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>26613</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>26688</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>26763</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>26838</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>26913</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>26988</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>27063</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>27138</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>27213</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>27288</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>27363</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>27438</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>27513</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>27588</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>27663</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>27738</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>27813</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>27888</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>27963</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>28038</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>28113</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>28188</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>28263</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>28338</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>28413</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>28488</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>28563</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>28638</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>28713</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>28788</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>28863</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>28938</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>29013</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>29088</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>29163</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>29238</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>29313</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>29388</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>29463</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>29538</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>29613</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>29688</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>29763</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>29838</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>29913</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>29988</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>30063</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>30138</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>30213</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>30288</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>30363</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>30438</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>30513</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>30588</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>30663</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>30738</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>30813</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>30888</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>30963</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>31038</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>31113</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>31188</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>31263</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>31338</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>31413</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>31488</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>31563</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>31638</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>31713</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>31788</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>31863</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>31938</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>32013</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>32088</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>32163</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>32238</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>32313</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>32388</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>32463</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>32538</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>32613</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>32688</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>32763</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>32838</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>32913</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>32988</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>33063</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>33138</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>33213</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>33288</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>33363</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>33438</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>33513</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>33588</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>33663</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>33738</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>33813</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>33888</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>33963</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>34038</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>34113</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>34188</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>34263</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>34338</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>34413</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>34488</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>34563</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>34638</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>34713</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>34788</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>34863</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>34938</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>35013</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>35088</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>35163</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>35238</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>35313</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>35388</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>35463</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>35538</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>35613</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>35688</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>35763</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>35838</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>35913</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>35988</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>36063</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>36138</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>36213</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>36288</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>36363</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>36438</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>36513</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>36588</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>36663</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>36738</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>36813</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>36888</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>36963</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>37038</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>37113</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>37188</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>37263</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>37338</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>37413</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>37488</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>37563</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>37638</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>37713</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>37788</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>37863</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>37938</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>38013</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>38088</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>38163</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>38238</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>38313</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>38388</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>38463</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>38538</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9A47-4A90-8705-C048882FA0FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="437567528"/>
+        <c:axId val="437569496"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="437567528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Generation</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="437569496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="437569496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Number of Plants</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="437567528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1713,6 +5170,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1746,6 +5719,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>53975</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>358775</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2CFA813-B7DB-40B9-A944-9E5EA69022CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2053,8 +6062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD35AA2-F28D-47FF-866F-F7474948EDAC}">
   <dimension ref="A1:H503"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="H164" sqref="H164"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
